--- a/Portfolio/scripts/input/cash_康力泉.xlsx
+++ b/Portfolio/scripts/input/cash_康力泉.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\scripts\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\scripts\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8186FB-7584-4436-ABE4-260E5B470D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B14C9-873B-4097-9729-7C89EDDA367C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="1320" windowWidth="25785" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12612" yWindow="1320" windowWidth="25788" windowHeight="15432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="现金" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -50,16 +43,15 @@
     <t>总市值</t>
   </si>
   <si>
-    <t>房地产P2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>货币基金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>康力泉</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产P2P</t>
   </si>
 </sst>
 </file>
@@ -414,37 +406,37 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1">
         <f>SUM(E:E)</f>
-        <v>269136.59999999998</v>
+        <v>271536.59999999998</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1">
         <f>SUM(F:F)</f>
-        <v>16751.189999999999</v>
+        <v>17951.189999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -464,9 +456,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>999990</v>
@@ -484,28 +476,29 @@
         <v>5409.19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>999991</v>
       </c>
       <c r="C4" s="1">
-        <v>1.1342000000000001</v>
+        <v>1.1254</v>
       </c>
       <c r="D4" s="2">
         <v>100000</v>
       </c>
       <c r="E4" s="2">
-        <v>111342</v>
+        <v>112542</v>
       </c>
       <c r="F4" s="2">
-        <v>11342</v>
+        <v>12542</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>